--- a/biology/Médecine/1906_en_santé_et_médecine/1906_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1906_en_santé_et_médecine/1906_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1906_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1906_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1906 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1906_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1906_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9 mars : fondation de l'École de pharmacie de l'Université Laval de Montréal[1].
-19-26 avril : XVe congrès international de médecine à Lisbonne[2].
-16 mai : fondation de l’Université indochinoise[3].
-4 novembre : le psychiatre et neurologue allemand Alois Alzheimer décrit la maladie qui porte aujourd'hui son nom[4].
-Paul Oudin et Fernand Verchère commencent la radiumthérapie des cancers de l'utérus[5].
-Fernand Widal et Adolphe Javal préconisent le traitement de la maladie de Bright par la déchloruration[6].
-Le Certificat d’études médicales supérieures est la cible de nombreuses critiques[7].
-Jules Bordet et Octave Gengou isolent la bactérie responsable de la coqueluche[8].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>9 mars : fondation de l'École de pharmacie de l'Université Laval de Montréal.
+19-26 avril : XVe congrès international de médecine à Lisbonne.
+16 mai : fondation de l’Université indochinoise.
+4 novembre : le psychiatre et neurologue allemand Alois Alzheimer décrit la maladie qui porte aujourd'hui son nom.
+Paul Oudin et Fernand Verchère commencent la radiumthérapie des cancers de l'utérus.
+Fernand Widal et Adolphe Javal préconisent le traitement de la maladie de Bright par la déchloruration.
+Le Certificat d’études médicales supérieures est la cible de nombreuses critiques.
+Jules Bordet et Octave Gengou isolent la bactérie responsable de la coqueluche.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1906_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1906_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Prix Nobel de médecine : Camillo Golgi et Santiago Ramón y Cajal, « en reconnaissance de leurs travaux sur la structure du système nerveux[9] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prix Nobel de médecine : Camillo Golgi et Santiago Ramón y Cajal, « en reconnaissance de leurs travaux sur la structure du système nerveux ».</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1906_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1906_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,21 +594,23 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1er janvier : Adélaïde Hautval (morte en 1988), psychiatre française, reconnue Juste parmi les nations.
 11 janvier : Albert Hofmann (mort en 2008), biochimiste et pharmacologiste suisse.
 18 février : Hans Asperger (mort en 1980), pédiatre autrichien.
 17 avril : Jan Waldenström (mort en 1996), médecin suédois.
 1er mai : Horst Schumann (mort en 1983), médecin nazi, accusé d'« euthanasie de prisonniers ».
-9 mai Jean Auriac (mort en 1941), médecin et résistant français[10].
+9 mai Jean Auriac (mort en 1941), médecin et résistant français.
 19 juin : Ernst Chain (mort en 1979), chimiste britannique d'origine allemande, lauréat en 1945 du prix Nobel de médecine avec Alexander Fleming et Howard Florey pour leur travail sur la pénicilline.
 22 juin : Bernard Ménétrel (mort en 1947), médecin du maréchal Pétain, son conseiller à Vichy.
-15 septembre : Jean Levaditi (mort en 1991), médecin et anatomo-pathologiste français[11].
+15 septembre : Jean Levaditi (mort en 1991), médecin et anatomo-pathologiste français.
 1er novembre Pierre Aboulker (mort en 1976), urologue français.
 7 novembre : Jean-Robert Debray (mort en 1980), médecin et homme politique français.
 Date inconnue
-Jules Driessens (mort en 1971), anatomiste et cancérologue français[12].
+Jules Driessens (mort en 1971), anatomiste et cancérologue français.
 Jean Vieuchange (en) (mort en 2003), médecin et biologiste français.</t>
         </is>
       </c>
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1906_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1906_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,21 +639,23 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>24 janvier : Louis de Wecker (né en 1832, ophtalmologue allemand, autrichien, puis français.
 23 juillet : Paul Brouardel (né en 1837), médecin français, spécialiste de médecine légale.
 2 mars : Jean-Baptiste Gélineau (né en 1828), neurologue français.
 15 mars : Césaire Phisalix (né en 1852), herpétologiste.
-14 avril : Vincent Paulet (né en 1828), anatomiste français[13].
+14 avril : Vincent Paulet (né en 1828), anatomiste français.
 19 avril : Pierre Curie (né en 1859), physicien français, pionnier de la radiothérapie.
-20 juin : Albert Josias (né en 1852), hygiéniste et pédiatre français[14].
-26 août : Georges Morache (né en 1837), chirurgien de la Marine, professeur au Val-de-Grâce[15].
-12 octobre : Pierre Merklen (né en 1852), clinicien, cardiologue et dermatologue français[16].
+20 juin : Albert Josias (né en 1852), hygiéniste et pédiatre français.
+26 août : Georges Morache (né en 1837), chirurgien de la Marine, professeur au Val-de-Grâce.
+12 octobre : Pierre Merklen (né en 1852), clinicien, cardiologue et dermatologue français.
 19 novembre : François Césaire de Mahy (né en 1830), médecin et homme politique français.
-25 novembre : Achille Dron (né en 1830), chirurgien militaire français[17].
+25 novembre : Achille Dron (né en 1830), chirurgien militaire français.
 Date inconnue
-Toussaint Barthélémy (né en 1850), dermatologue et syphiligraphe français[18].</t>
+Toussaint Barthélémy (né en 1850), dermatologue et syphiligraphe français.</t>
         </is>
       </c>
     </row>
